--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N2">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O2">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P2">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q2">
-        <v>0.04916149877600001</v>
+        <v>0.05891079891733333</v>
       </c>
       <c r="R2">
-        <v>0.442453488984</v>
+        <v>0.530197190256</v>
       </c>
       <c r="S2">
-        <v>0.0002686811783400995</v>
+        <v>0.0003536867402786778</v>
       </c>
       <c r="T2">
-        <v>0.000283018266790459</v>
+        <v>0.0003629016806658156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P3">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q3">
-        <v>1.637704015771778</v>
+        <v>1.732014471930667</v>
       </c>
       <c r="R3">
-        <v>14.739336141946</v>
+        <v>15.588130247376</v>
       </c>
       <c r="S3">
-        <v>0.008950505083963924</v>
+        <v>0.01039861220609606</v>
       </c>
       <c r="T3">
-        <v>0.00942811272234397</v>
+        <v>0.0106695372385489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N4">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O4">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P4">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q4">
-        <v>0.03991431838622223</v>
+        <v>0.024569038976</v>
       </c>
       <c r="R4">
-        <v>0.359228865476</v>
+        <v>0.221121350784</v>
       </c>
       <c r="S4">
-        <v>0.0002181427817226661</v>
+        <v>0.0001475067978520393</v>
       </c>
       <c r="T4">
-        <v>0.0002297830922784226</v>
+        <v>0.0001513499341478279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N5">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O5">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P5">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q5">
-        <v>0.2852381961563334</v>
+        <v>0.152019556184</v>
       </c>
       <c r="R5">
-        <v>1.711429176938</v>
+        <v>0.9121173371040001</v>
       </c>
       <c r="S5">
-        <v>0.001558905577718103</v>
+        <v>0.000912690071658667</v>
       </c>
       <c r="T5">
-        <v>0.001094726861582349</v>
+        <v>0.0006243128418685996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H6">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I6">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J6">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N6">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O6">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P6">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q6">
-        <v>0.03475847902511111</v>
+        <v>0.02809146314666667</v>
       </c>
       <c r="R6">
-        <v>0.312826311226</v>
+        <v>0.25282316832</v>
       </c>
       <c r="S6">
-        <v>0.0001899646946145515</v>
+        <v>0.0001686546136294172</v>
       </c>
       <c r="T6">
-        <v>0.0002001013950933877</v>
+        <v>0.000173048734283718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N7">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O7">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P7">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q7">
-        <v>4.287537449212</v>
+        <v>4.858045987820779</v>
       </c>
       <c r="R7">
-        <v>38.58783704290801</v>
+        <v>43.722413890387</v>
       </c>
       <c r="S7">
-        <v>0.02343257717346011</v>
+        <v>0.02916657864320163</v>
       </c>
       <c r="T7">
-        <v>0.02468296223441335</v>
+        <v>0.02992648353328064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N8">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O8">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P8">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q8">
         <v>142.8296018870419</v>
@@ -948,10 +948,10 @@
         <v>1285.466416983377</v>
       </c>
       <c r="S8">
-        <v>0.7806032503547715</v>
+        <v>0.8575157226711032</v>
       </c>
       <c r="T8">
-        <v>0.8222569974244976</v>
+        <v>0.8798574035020598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N9">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O9">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P9">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q9">
-        <v>3.481060160929112</v>
+        <v>2.026072017618668</v>
       </c>
       <c r="R9">
-        <v>31.329541448362</v>
+        <v>18.234648158568</v>
       </c>
       <c r="S9">
-        <v>0.01902495589430258</v>
+        <v>0.01216406534372336</v>
       </c>
       <c r="T9">
-        <v>0.02004014600589104</v>
+        <v>0.01248098742262104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N10">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O10">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P10">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q10">
-        <v>24.87656964118017</v>
+        <v>12.53620742822217</v>
       </c>
       <c r="R10">
-        <v>149.259417847081</v>
+        <v>75.21724456933302</v>
       </c>
       <c r="S10">
-        <v>0.1359573286141311</v>
+        <v>0.07526447480311901</v>
       </c>
       <c r="T10">
-        <v>0.09547476241680487</v>
+        <v>0.05148360830822744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N11">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O11">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P11">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q11">
-        <v>3.031402300748556</v>
+        <v>2.316546751015556</v>
       </c>
       <c r="R11">
-        <v>27.282620706737</v>
+        <v>20.84892075914</v>
       </c>
       <c r="S11">
-        <v>0.01656745140946821</v>
+        <v>0.01390800810933803</v>
       </c>
       <c r="T11">
-        <v>0.01745150669656358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.757644</v>
-      </c>
-      <c r="N12">
-        <v>2.272932</v>
-      </c>
-      <c r="O12">
-        <v>0.02401898721285653</v>
-      </c>
-      <c r="P12">
-        <v>0.02518910262217759</v>
-      </c>
-      <c r="Q12">
-        <v>0.05813591823000001</v>
-      </c>
-      <c r="R12">
-        <v>0.3488155093800001</v>
-      </c>
-      <c r="S12">
-        <v>0.0003177288610563185</v>
-      </c>
-      <c r="T12">
-        <v>0.0002231221209737792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>25.23919433333333</v>
-      </c>
-      <c r="N13">
-        <v>75.71758299999999</v>
-      </c>
-      <c r="O13">
-        <v>0.8001381730141522</v>
-      </c>
-      <c r="P13">
-        <v>0.8391179183936208</v>
-      </c>
-      <c r="Q13">
-        <v>1.9366664791825</v>
-      </c>
-      <c r="R13">
-        <v>11.619998875095</v>
-      </c>
-      <c r="S13">
-        <v>0.0105844175754168</v>
-      </c>
-      <c r="T13">
-        <v>0.007432808246779123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.6151326666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.845398</v>
-      </c>
-      <c r="O14">
-        <v>0.0195010633686494</v>
-      </c>
-      <c r="P14">
-        <v>0.0204510823908332</v>
-      </c>
-      <c r="Q14">
-        <v>0.047200667345</v>
-      </c>
-      <c r="R14">
-        <v>0.28320400407</v>
-      </c>
-      <c r="S14">
-        <v>0.000257964692624156</v>
-      </c>
-      <c r="T14">
-        <v>0.0001811532926637357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.395899500000001</v>
-      </c>
-      <c r="N15">
-        <v>8.791799000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.139359717597582</v>
-      </c>
-      <c r="P15">
-        <v>0.09743253526482903</v>
-      </c>
-      <c r="Q15">
-        <v>0.3373083583837501</v>
-      </c>
-      <c r="R15">
-        <v>1.349233433535</v>
-      </c>
-      <c r="S15">
-        <v>0.001843483405732824</v>
-      </c>
-      <c r="T15">
-        <v>0.0008630459864418079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5356743333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.607023</v>
-      </c>
-      <c r="O16">
-        <v>0.01698205880675988</v>
-      </c>
-      <c r="P16">
-        <v>0.01780936132853939</v>
-      </c>
-      <c r="Q16">
-        <v>0.0411036307825</v>
-      </c>
-      <c r="R16">
-        <v>0.246621784695</v>
-      </c>
-      <c r="S16">
-        <v>0.0002246427026771184</v>
-      </c>
-      <c r="T16">
-        <v>0.0001577532368824257</v>
+        <v>0.01427036680429617</v>
       </c>
     </row>
   </sheetData>
